--- a/biology/Microbiologie/Loxocephalidae/Loxocephalidae.xlsx
+++ b/biology/Microbiologie/Loxocephalidae/Loxocephalidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Loxocephalidae sont une famille de ciliés de la classe des Oligohymenophorea et de l'ordre des Scuticociliatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Loxocephalus, dérivé du grec ancien λοξός / loxós, « oblique, incliné, de travers », et κεφαλος - κεφαλωτος / kefalos - kefalotos, « tête », littéralement « à tête oblique », en référence à la forme de la partie antérieure de ces ciliés, notamment de son espèce type Loxocephalus luridus.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Loxocephalidae ont une taille petite (&lt; 80 µm) à grande (&gt; 200 µm). Leur forme est allongée-ovoïde, avec une extrémité apicale nue dans certains genres et un cytoplasme d'apparence sombre en raison de la présence d'inclusions minérales. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. homogène). Leurs cinéties somatiques[note 1] présentent une paraténie prononcée [note 2] près de l'extrémité antérieure, surtout près de la région buccale. Ils ont un ou plusieurs  cils caudaux (c. à d. dans la partie postérieur du corps cellulaire). Leur région buccale  se présente comme une petite cavité antérieure, avec des polycinéties (plusieurs rangées de cils) buccaux rectangulaires, et une paroi nervurée prononcée s'étendant à partir d'un court paroral. Leur suture postorale est bien visible, remplaçant le méridien directeur chez certaines espèces, toutes les polycinéties oraux, issues de leur stomatogenèse [note 3] provenant de scutica[note 4] ou de vestige de scutica. Leur macronoyau est globulaire à ellipsoïde, rarement sous forme de nodules multiples. Leur micronoyau  peut être multiple. On observe une ou des vacuole(s) contractile(s), souvent au niveau du macronoyau. Un cytoprocte  est présent ; il est grand et en forme de bande. Les espèces de cette famille sont microphages, généralement sur les bactéries[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Loxocephalidae ont une taille petite (&lt; 80 µm) à grande (&gt; 200 µm). Leur forme est allongée-ovoïde, avec une extrémité apicale nue dans certains genres et un cytoplasme d'apparence sombre en raison de la présence d'inclusions minérales. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. homogène). Leurs cinéties somatiques[note 1] présentent une paraténie prononcée [note 2] près de l'extrémité antérieure, surtout près de la région buccale. Ils ont un ou plusieurs  cils caudaux (c. à d. dans la partie postérieur du corps cellulaire). Leur région buccale  se présente comme une petite cavité antérieure, avec des polycinéties (plusieurs rangées de cils) buccaux rectangulaires, et une paroi nervurée prononcée s'étendant à partir d'un court paroral. Leur suture postorale est bien visible, remplaçant le méridien directeur chez certaines espèces, toutes les polycinéties oraux, issues de leur stomatogenèse [note 3] provenant de scutica[note 4] ou de vestige de scutica. Leur macronoyau est globulaire à ellipsoïde, rarement sous forme de nodules multiples. Leur micronoyau  peut être multiple. On observe une ou des vacuole(s) contractile(s), souvent au niveau du macronoyau. Un cytoprocte  est présent ; il est grand et en forme de bande. Les espèces de cette famille sont microphages, généralement sur les bactéries.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Loxocephalidae vivent en eau douce, parfois en eau saumâtre ou dans des habitats terrestres, préférant les environnements polysaprobes[note 5] ou sapropéliques[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Loxocephalidae vivent en eau douce, parfois en eau saumâtre ou dans des habitats terrestres, préférant les environnements polysaprobes[note 5] ou sapropéliques.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 mai 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 mai 2024) :
 Antameron
 Balanonema Kahl, 1931
 Cardiostomatella Corliss, 1960
@@ -618,7 +638,7 @@
 Paradexiotricha Grolière, 1975
 Paraloxocephalus Small &amp; Lynn, 1985
 Paratetrahymena Thompson, 1963
-Selon Lynn (2010)[1]
+Selon Lynn (2010)
 Cardiostomatella Corliss, 1960
 Dexiotricha Stokes, 1885
 Dexiotrichides Kahl, 1931
@@ -653,9 +673,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Loxocephalidae Jankowksi, 1964[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Loxocephalidae Jankowksi, 1964.
 </t>
         </is>
       </c>
